--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B26A6A-47B4-FD47-A819-20A5F8FFC1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629424A-D3FC-244C-AD8F-CD3E72431596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="5" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="4" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -3895,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283EE1A-CA87-472E-B6B2-7DC97A7C5B80}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC46C0E-CEC0-4859-81BF-50A44017782F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView zoomScale="176" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629424A-D3FC-244C-AD8F-CD3E72431596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E2D4A-CFF3-0C40-BCA9-A3A065CEBA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="4" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="3" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="345">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -974,114 +974,6 @@
     <t>state-visibility</t>
   </si>
   <si>
-    <t>compound-borrowfresh-reentrancy</t>
-  </si>
-  <si>
-    <t>compound-sweeptoken-not-restricted</t>
-  </si>
-  <si>
-    <t>erc20-public-transfer</t>
-  </si>
-  <si>
-    <t>erc20-public-burn</t>
-  </si>
-  <si>
-    <t>erc677-reentrancy</t>
-  </si>
-  <si>
-    <t>erc777-reentrancy</t>
-  </si>
-  <si>
-    <t>erc721-reentrancy</t>
-  </si>
-  <si>
-    <t>erc721-arbitrary-transferfrom</t>
-  </si>
-  <si>
-    <t>gearbox-tokens-path-confusion</t>
-  </si>
-  <si>
-    <t>keeper-network-oracle-manipulation</t>
-  </si>
-  <si>
-    <t>basic-oracle-manipulation</t>
-  </si>
-  <si>
-    <t>redacted-cartel-custom-approval-bug</t>
-  </si>
-  <si>
-    <t>rigoblock-missing-access-control</t>
-  </si>
-  <si>
-    <t>oracle-price-update-not-restricted</t>
-  </si>
-  <si>
-    <t>superfluid-ctx-injection</t>
-  </si>
-  <si>
-    <t>tecra-coin-burnfrom-bug</t>
-  </si>
-  <si>
-    <t>arbitrary-low-level-call</t>
-  </si>
-  <si>
-    <t>sense-missing-oracle-access-control</t>
-  </si>
-  <si>
-    <t>proxy-storage-collision</t>
-  </si>
-  <si>
-    <t>uniswap-callback-not-protected</t>
-  </si>
-  <si>
-    <t>openzeppelin-ecdsa-recover-malleable</t>
-  </si>
-  <si>
-    <t>unrestricted-transferownership</t>
-  </si>
-  <si>
-    <t>msg-value-multicall</t>
-  </si>
-  <si>
-    <t>no-bidi-characters</t>
-  </si>
-  <si>
-    <t>delegatecall-to-arbitrary-address</t>
-  </si>
-  <si>
-    <t>incorrect-use-of-blockhash</t>
-  </si>
-  <si>
-    <t>accessible-selfdestruct</t>
-  </si>
-  <si>
-    <t>no-slippage-check</t>
-  </si>
-  <si>
-    <t>balancer-readonly-reentrancy-getrate</t>
-  </si>
-  <si>
-    <t>balancer-readonly-reentrancy-getpooltokens</t>
-  </si>
-  <si>
-    <t>curve-readonly-reentrancy</t>
-  </si>
-  <si>
-    <t>public-transfer-fees-supporting-tax-tokens</t>
-  </si>
-  <si>
-    <t>olympus-dao-staking-incorrect-call-order</t>
-  </si>
-  <si>
-    <t>compound-precision-loss</t>
-  </si>
-  <si>
-    <t>thirdweb-vulnerability</t>
-  </si>
-  <si>
-    <t>exact-balance-check</t>
-  </si>
-  <si>
     <t>https://github.com/Decurity/semgrep-smart-contracts</t>
   </si>
   <si>
@@ -1091,9 +983,6 @@
     <t>Semgrep</t>
   </si>
   <si>
-    <t>basic-arithmetic-underflow</t>
-  </si>
-  <si>
     <t>integer over/underflow</t>
   </si>
   <si>
@@ -1107,6 +996,120 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>compound_borrowfresh_reentrancy</t>
+  </si>
+  <si>
+    <t>compound_sweeptoken_not_restricted</t>
+  </si>
+  <si>
+    <t>erc20_public_transfer</t>
+  </si>
+  <si>
+    <t>erc20_public_burn</t>
+  </si>
+  <si>
+    <t>erc677_reentrancy</t>
+  </si>
+  <si>
+    <t>erc777_reentrancy</t>
+  </si>
+  <si>
+    <t>erc721_reentrancy</t>
+  </si>
+  <si>
+    <t>erc721_arbitrary_transferfrom</t>
+  </si>
+  <si>
+    <t>gearbox_tokens_path_confusion</t>
+  </si>
+  <si>
+    <t>keeper_network_oracle_manipulation</t>
+  </si>
+  <si>
+    <t>basic_oracle_manipulation</t>
+  </si>
+  <si>
+    <t>redacted_cartel_custom_approval_bug</t>
+  </si>
+  <si>
+    <t>rigoblock_missing_access_control</t>
+  </si>
+  <si>
+    <t>oracle_price_update_not_restricted</t>
+  </si>
+  <si>
+    <t>superfluid_ctx_injection</t>
+  </si>
+  <si>
+    <t>tecra_coin_burnfrom_bug</t>
+  </si>
+  <si>
+    <t>arbitrary_low_level_call</t>
+  </si>
+  <si>
+    <t>sense_missing_oracle_access_control</t>
+  </si>
+  <si>
+    <t>proxy_storage_collision</t>
+  </si>
+  <si>
+    <t>uniswap_callback_not_protected</t>
+  </si>
+  <si>
+    <t>encode_packed_collision</t>
+  </si>
+  <si>
+    <t>openzeppelin_ecdsa_recover_malleable</t>
+  </si>
+  <si>
+    <t>basic_arithmetic_underflow</t>
+  </si>
+  <si>
+    <t>unrestricted_transferownership</t>
+  </si>
+  <si>
+    <t>msg_value_multicall</t>
+  </si>
+  <si>
+    <t>no_bidi_characters</t>
+  </si>
+  <si>
+    <t>delegatecall_to_arbitrary_address</t>
+  </si>
+  <si>
+    <t>incorrect_use_of_blockhash</t>
+  </si>
+  <si>
+    <t>accessible_selfdestruct</t>
+  </si>
+  <si>
+    <t>no_slippage_check</t>
+  </si>
+  <si>
+    <t>balancer_readonly_reentrancy_getrate</t>
+  </si>
+  <si>
+    <t>balancer_readonly_reentrancy_getpooltokens</t>
+  </si>
+  <si>
+    <t>curve_readonly_reentrancy</t>
+  </si>
+  <si>
+    <t>public_transfer_fees_supporting_tax_tokens</t>
+  </si>
+  <si>
+    <t>olympus_dao_staking_incorrect_call_order</t>
+  </si>
+  <si>
+    <t>compound_precision_loss</t>
+  </si>
+  <si>
+    <t>thirdweb_vulnerability</t>
+  </si>
+  <si>
+    <t>exact_balance_check</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,6 +1166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1177,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,6 +1199,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2712,13 +2722,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3326,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C2">
         <v>107</v>
@@ -3380,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C3">
         <v>105</v>
@@ -3400,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3408,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3416,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C6">
         <v>107</v>
@@ -3436,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -3456,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -3476,7 +3486,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3484,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3492,7 +3502,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -3512,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C12">
         <v>101</v>
@@ -3532,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,7 +3550,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3554,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3568,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3576,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3584,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C18">
         <v>112</v>
@@ -3593,18 +3603,16 @@
         <v>213</v>
       </c>
       <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3618,7 +3626,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C20">
         <v>124</v>
@@ -3638,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3646,7 +3654,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,7 +3662,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C23">
         <v>117</v>
@@ -3674,7 +3682,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -3694,7 +3702,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3708,7 +3716,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3716,7 +3724,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C27">
         <v>130</v>
@@ -3730,7 +3738,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C28">
         <v>112</v>
@@ -3739,18 +3747,16 @@
         <v>213</v>
       </c>
       <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>213</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,7 +3764,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C30">
         <v>106</v>
@@ -3778,7 +3784,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3786,7 +3792,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C32">
         <v>107</v>
@@ -3806,7 +3812,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C33">
         <v>107</v>
@@ -3826,7 +3832,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C34">
         <v>107</v>
@@ -3846,7 +3852,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3854,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3862,7 +3868,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3870,7 +3876,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3878,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283EE1A-CA87-472E-B6B2-7DC97A7C5B80}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4080,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="C2">
         <v>101</v>
@@ -4094,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C3">
         <v>101</v>
@@ -4108,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C4">
         <v>106</v>
@@ -4122,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -4146,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642EC6D-AA27-4FDC-A28F-3545E59FFB76}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G38"/>
+    <sheetView topLeftCell="C1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5170,7 +5176,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E2D4A-CFF3-0C40-BCA9-A3A065CEBA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E0B96-9DB2-5447-A010-632E80799DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="3" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="5" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="349">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -1110,6 +1110,18 @@
   </si>
   <si>
     <t>exact_balance_check</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>ETH_LEAK</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>KILL</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4046,22 +4058,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC46C0E-CEC0-4859-81BF-50A44017782F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -4069,77 +4082,92 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
         <v>303</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>101</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>106</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
         <v>305</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>105</v>
       </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>213</v>
       </c>
     </row>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E0B96-9DB2-5447-A010-632E80799DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C17142-4CF8-3545-8131-70B0B020FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="5" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="1" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -739,39 +739,6 @@
     <t>Ether lock (Ether accepted without send)</t>
   </si>
   <si>
-    <t>SWC ID: 101</t>
-  </si>
-  <si>
-    <t>SWC ID: 116</t>
-  </si>
-  <si>
-    <t>SWC ID: 107</t>
-  </si>
-  <si>
-    <t>SWC ID: 113</t>
-  </si>
-  <si>
-    <t>SWC ID: 120</t>
-  </si>
-  <si>
-    <t>SWC ID: 110</t>
-  </si>
-  <si>
-    <t>SWC ID: 104</t>
-  </si>
-  <si>
-    <t>SWC ID: 105</t>
-  </si>
-  <si>
-    <t>SWC ID: 106</t>
-  </si>
-  <si>
-    <t>SWC ID: 112</t>
-  </si>
-  <si>
-    <t>SWC ID: 124</t>
-  </si>
-  <si>
     <t>https://dasp.co/</t>
   </si>
   <si>
@@ -911,9 +878,6 @@
     <t>Module</t>
   </si>
   <si>
-    <t>SWC ID: 127</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -1122,6 +1086,42 @@
   </si>
   <si>
     <t>KILL</t>
+  </si>
+  <si>
+    <t>SWC-101</t>
+  </si>
+  <si>
+    <t>SWC-104</t>
+  </si>
+  <si>
+    <t>SWC-105</t>
+  </si>
+  <si>
+    <t>SWC-106</t>
+  </si>
+  <si>
+    <t>SWC-107</t>
+  </si>
+  <si>
+    <t>SWC-110</t>
+  </si>
+  <si>
+    <t>SWC-112</t>
+  </si>
+  <si>
+    <t>SWC-113</t>
+  </si>
+  <si>
+    <t>SWC-116</t>
+  </si>
+  <si>
+    <t>SWC-120</t>
+  </si>
+  <si>
+    <t>SWC-124</t>
+  </si>
+  <si>
+    <t>SWC-127</t>
   </si>
 </sst>
 </file>
@@ -2674,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,46 +2701,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2782,7 @@
         <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>117</v>
@@ -2805,22 +2805,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -2829,22 +2829,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -2853,22 +2853,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -2877,22 +2877,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -2901,22 +2901,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -2925,22 +2925,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -2949,20 +2949,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="D8">
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -2971,20 +2971,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="D9">
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -2993,20 +2993,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="D10">
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -3015,22 +3015,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="D11">
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -3039,22 +3039,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="D12">
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -3063,22 +3063,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="D13">
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -3087,22 +3087,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="D14">
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -3111,20 +3111,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="D15">
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3185,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C3">
         <v>104</v>
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C4">
         <v>106</v>
@@ -3213,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3229,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <v>115</v>
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3259,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3267,7 +3267,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3283,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3291,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3299,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3307,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C16">
         <v>116</v>
@@ -3321,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C17">
         <v>107</v>
@@ -3335,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C2">
         <v>107</v>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C3">
         <v>105</v>
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C6">
         <v>107</v>
@@ -3458,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -3478,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -3498,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3514,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -3534,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C12">
         <v>101</v>
@@ -3554,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3562,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3576,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C18">
         <v>112</v>
@@ -3624,7 +3624,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <v>124</v>
@@ -3658,7 +3658,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,7 +3666,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3674,7 +3674,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C23">
         <v>117</v>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -3714,7 +3714,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C27">
         <v>130</v>
@@ -3750,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C28">
         <v>112</v>
@@ -3768,7 +3768,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,7 +3776,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C30">
         <v>106</v>
@@ -3796,7 +3796,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C32">
         <v>107</v>
@@ -3824,7 +3824,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C33">
         <v>107</v>
@@ -3844,7 +3844,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C34">
         <v>107</v>
@@ -3864,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC46C0E-CEC0-4859-81BF-50A44017782F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView zoomScale="176" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4102,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -4119,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D3">
         <v>101</v>
@@ -4136,10 +4136,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D4">
         <v>106</v>
@@ -4153,10 +4153,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D5">
         <v>105</v>
@@ -4252,10 +4252,10 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -4307,10 +4307,10 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4330,10 +4330,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K6" t="s">
         <v>112</v>
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J7" t="s">
         <v>114</v>
@@ -4423,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J8" t="s">
         <v>116</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K9" t="s">
         <v>112</v>
@@ -4484,10 +4484,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4504,10 +4504,10 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L11" t="s">
         <v>112</v>
@@ -4530,10 +4530,10 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K12" t="s">
         <v>112</v>
@@ -4559,10 +4559,10 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K14" t="s">
         <v>112</v>
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
@@ -4646,7 +4646,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
         <v>112</v>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
@@ -4698,7 +4698,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K18" t="s">
         <v>112</v>
@@ -4727,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4750,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4770,10 +4770,10 @@
         <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4796,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s">
         <v>112</v>
@@ -4819,7 +4819,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4859,10 +4859,10 @@
         <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
         <v>112</v>
@@ -4908,10 +4908,10 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>65</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
         <v>112</v>
@@ -4983,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
         <v>112</v>
@@ -5006,10 +5006,10 @@
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5029,10 +5029,10 @@
         <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -5052,10 +5052,10 @@
         <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5075,10 +5075,10 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5098,10 +5098,10 @@
         <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5124,7 +5124,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s">
         <v>112</v>
@@ -5147,10 +5147,10 @@
         <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,10 +5170,10 @@
         <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I38" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5204,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5530,16 +5530,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -5552,10 +5552,10 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5563,10 +5563,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5574,10 +5574,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5585,10 +5585,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5596,10 +5596,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5607,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5618,10 +5618,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5629,10 +5629,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5640,10 +5640,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5651,7 +5651,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C17142-4CF8-3545-8131-70B0B020FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFA586-9688-E147-ADC2-47C15F8442BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="1" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="4" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="351">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -722,18 +722,6 @@
   </si>
   <si>
     <t>Destructible</t>
-  </si>
-  <si>
-    <t>Destructible (verified)</t>
-  </si>
-  <si>
-    <t>Ether leak</t>
-  </si>
-  <si>
-    <t>Ether leak (verified)</t>
-  </si>
-  <si>
-    <t>Ether lock</t>
   </si>
   <si>
     <t>Ether lock (Ether accepted without send)</t>
@@ -1122,6 +1110,24 @@
   </si>
   <si>
     <t>SWC-127</t>
+  </si>
+  <si>
+    <t>105? 2?</t>
+  </si>
+  <si>
+    <t>120? 6?</t>
+  </si>
+  <si>
+    <t>Ether_leak_verified</t>
+  </si>
+  <si>
+    <t>Destructible_verified</t>
+  </si>
+  <si>
+    <t>Ether_leak</t>
+  </si>
+  <si>
+    <t>Ether_lock</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,6 +1190,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1198,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,6 +1230,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1590,17 +1610,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A46" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1636,8 +1657,15 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>120</v>
+      </c>
+      <c r="C3" s="10">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1742,14 +1770,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C14">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
+        <v>124</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1786,16 +1814,30 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>135</v>
+      </c>
+      <c r="C18" s="10">
+        <v>105</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>136</v>
+      </c>
+      <c r="C19" s="10">
+        <v>105</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,8 +1904,14 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>143</v>
+      </c>
+      <c r="C26">
+        <v>107</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1889,6 +1937,12 @@
       <c r="B29" t="s">
         <v>146</v>
       </c>
+      <c r="C29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1897,6 +1951,12 @@
       <c r="B30" t="s">
         <v>147</v>
       </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1942,10 +2002,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>5</v>
       </c>
       <c r="F36" t="s">
@@ -2085,6 +2145,12 @@
       <c r="B49" t="s">
         <v>166</v>
       </c>
+      <c r="C49">
+        <v>104</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -2093,6 +2159,12 @@
       <c r="B50" t="s">
         <v>167</v>
       </c>
+      <c r="C50">
+        <v>104</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -2224,8 +2296,15 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>180</v>
+      </c>
+      <c r="C63" s="10">
+        <v>105</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2248,15 +2327,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>107</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2264,11 +2349,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C67">
@@ -2283,8 +2368,11 @@
       <c r="F67" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2292,7 +2380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2300,7 +2388,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2308,7 +2396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2316,7 +2404,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2324,7 +2412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2332,7 +2420,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2340,7 +2428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2348,7 +2436,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2368,7 +2456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2376,7 +2464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2384,7 +2472,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2398,7 +2486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2406,7 +2494,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2414,7 +2502,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2422,7 +2510,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2436,7 +2524,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2444,7 +2532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2452,15 +2540,24 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>107</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2468,7 +2565,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2476,7 +2573,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2484,7 +2581,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2492,7 +2589,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2500,7 +2597,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2508,7 +2605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2674,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,46 +2798,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2763,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2879,7 @@
         <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>117</v>
@@ -2805,22 +2902,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D2">
         <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -2829,22 +2926,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -2853,22 +2950,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D4">
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -2877,22 +2974,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -2901,22 +2998,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -2925,22 +3022,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -2949,20 +3046,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D8">
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -2971,20 +3068,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D9">
         <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -2993,20 +3090,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D10">
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -3015,22 +3112,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D11">
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -3039,22 +3136,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D12">
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -3063,22 +3160,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D13">
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -3087,22 +3184,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D14">
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -3111,20 +3208,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D15">
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -3177,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3185,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C3">
         <v>104</v>
@@ -3199,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>106</v>
@@ -3213,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3221,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3229,7 +3326,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7">
         <v>115</v>
@@ -3243,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3251,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3259,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3267,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3275,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3283,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3291,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3299,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3307,7 +3404,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C16">
         <v>116</v>
@@ -3321,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C17">
         <v>107</v>
@@ -3335,7 +3432,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3382,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C2">
         <v>107</v>
@@ -3402,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C3">
         <v>105</v>
@@ -3422,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3430,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3438,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C6">
         <v>107</v>
@@ -3458,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -3478,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -3498,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3506,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3514,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -3534,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C12">
         <v>101</v>
@@ -3554,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3562,7 +3659,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3576,7 +3673,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3590,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3598,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3606,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C18">
         <v>112</v>
@@ -3624,7 +3721,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3638,7 +3735,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C20">
         <v>124</v>
@@ -3658,7 +3755,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,7 +3763,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3674,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C23">
         <v>117</v>
@@ -3686,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3694,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C24">
         <v>101</v>
@@ -3714,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3728,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,7 +3833,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C27">
         <v>130</v>
@@ -3750,7 +3847,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C28">
         <v>112</v>
@@ -3768,7 +3865,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,7 +3873,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C30">
         <v>106</v>
@@ -3796,7 +3893,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C32">
         <v>107</v>
@@ -3824,7 +3921,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C33">
         <v>107</v>
@@ -3844,7 +3941,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C34">
         <v>107</v>
@@ -3864,7 +3961,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +3969,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,7 +3977,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +3985,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3896,7 +3993,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3911,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283EE1A-CA87-472E-B6B2-7DC97A7C5B80}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3968,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="C3">
         <v>106</v>
@@ -3988,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="C4">
         <v>105</v>
@@ -4008,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -4028,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4042,13 +4139,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4102,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -4119,10 +4221,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>101</v>
@@ -4136,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D4">
         <v>106</v>
@@ -4153,10 +4255,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D5">
         <v>105</v>
@@ -4180,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642EC6D-AA27-4FDC-A28F-3545E59FFB76}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4252,10 +4354,10 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4281,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -4307,10 +4409,10 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4330,10 +4432,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4359,7 +4461,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K6" t="s">
         <v>112</v>
@@ -4391,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
         <v>114</v>
@@ -4423,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
         <v>116</v>
@@ -4458,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K9" t="s">
         <v>112</v>
@@ -4484,10 +4586,10 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4504,10 +4606,10 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L11" t="s">
         <v>112</v>
@@ -4530,10 +4632,10 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K12" t="s">
         <v>112</v>
@@ -4559,10 +4661,10 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4585,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K14" t="s">
         <v>112</v>
@@ -4617,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
@@ -4646,7 +4748,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K16" t="s">
         <v>112</v>
@@ -4672,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
@@ -4698,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K18" t="s">
         <v>112</v>
@@ -4727,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4750,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4770,10 +4872,10 @@
         <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4796,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
         <v>112</v>
@@ -4819,7 +4921,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4839,7 +4941,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4859,10 +4961,10 @@
         <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4885,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
         <v>112</v>
@@ -4908,10 +5010,10 @@
         <v>64</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4931,7 +5033,7 @@
         <v>65</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4951,10 +5053,10 @@
         <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
         <v>112</v>
@@ -4983,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
         <v>112</v>
@@ -5006,10 +5108,10 @@
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5029,10 +5131,10 @@
         <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -5052,10 +5154,10 @@
         <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5075,10 +5177,10 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5098,10 +5200,10 @@
         <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5124,7 +5226,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s">
         <v>112</v>
@@ -5147,10 +5249,10 @@
         <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,10 +5272,10 @@
         <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5306,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5516,7 +5618,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5530,16 +5632,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -5552,10 +5654,10 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5563,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5574,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5585,10 +5687,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5596,10 +5698,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5607,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5618,10 +5720,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5629,10 +5731,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5640,10 +5742,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5651,7 +5753,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFA586-9688-E147-ADC2-47C15F8442BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5A3D5-2874-5B47-82BC-571872FD78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17180" activeTab="4" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Ref" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mythril!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mythril!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Semgrep!$A$1:$F$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Slither!$A$1:$F$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Solhint!$A$1:$F$18</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="358">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -724,9 +724,6 @@
     <t>Destructible</t>
   </si>
   <si>
-    <t>Ether lock (Ether accepted without send)</t>
-  </si>
-  <si>
     <t>https://dasp.co/</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
   </si>
   <si>
     <t>https://github.com/gsalzer/cgt/blob/main/consolidated.csv</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>article{di2023consolidation, title={Consolidation of Ground Truth Sets for Weakness Detection in Smart Contracts},
@@ -1073,9 +1067,6 @@
     <t>DZ</t>
   </si>
   <si>
-    <t>KILL</t>
-  </si>
-  <si>
     <t>SWC-101</t>
   </si>
   <si>
@@ -1115,9 +1106,6 @@
     <t>105? 2?</t>
   </si>
   <si>
-    <t>120? 6?</t>
-  </si>
-  <si>
     <t>Ether_leak_verified</t>
   </si>
   <si>
@@ -1128,6 +1116,39 @@
   </si>
   <si>
     <t>Ether_lock</t>
+  </si>
+  <si>
+    <t>SWC-115</t>
+  </si>
+  <si>
+    <t>10 [4] wrong</t>
+  </si>
+  <si>
+    <t>Accepts_Ether</t>
+  </si>
+  <si>
+    <t>Ether_lock_Ether_accepted_without_send</t>
+  </si>
+  <si>
+    <t>No_Ether_leak_no_send</t>
+  </si>
+  <si>
+    <t>No_Ether_lock_Ether_refused</t>
+  </si>
+  <si>
+    <t>Not_destructible_no_self_destruct</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>[2] 120? 6?</t>
+  </si>
+  <si>
+    <t>Dependence on tx.origin</t>
+  </si>
+  <si>
+    <t>Access of Uninitialized Pointer</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,12 +1196,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,8 +1217,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1211,12 +1238,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,11 +1269,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1610,1013 +1660,1320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A67" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="7">
+        <v>103</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="7">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="7">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="7">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="7">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>75</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="7">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="10">
+        <v>105</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="10">
+        <v>105</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="10">
+        <v>105</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="10">
+        <v>105</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="7">
+        <v>106</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7">
+        <v>106</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="7">
+        <v>107</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="7">
+        <v>107</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="7">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>64</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="7">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>85</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="7">
+        <v>107</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="7">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>68</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="7">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="7">
+        <v>113</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>66</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="7">
+        <v>116</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="7">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="7">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="7">
+        <v>119</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="7">
+        <v>120</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="7">
+        <v>124</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="10">
-        <v>105</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="7">
+        <v>130</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>82</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="7">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>35</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="15">
+        <v>132</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
+        <v>5</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B33" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B34" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B35" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B36" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B38" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B39" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14">
-        <v>124</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B40" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="10">
-        <v>105</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="10">
-        <v>105</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B43" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B45" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B46" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26">
-        <v>107</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B47" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B48" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30">
-        <v>120</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B49" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B50" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B53" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="8">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B54" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B55" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B56" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B57" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B58" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B59" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B60" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B61" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46">
-        <v>107</v>
-      </c>
-      <c r="D46" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B62" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48">
-        <v>115</v>
-      </c>
-      <c r="D48" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49">
-        <v>104</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50">
-        <v>104</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B63" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52">
-        <v>104</v>
-      </c>
-      <c r="D52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B64" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B65" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55">
-        <v>119</v>
-      </c>
-      <c r="D55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B66" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B67" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B68" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59">
-        <v>113</v>
-      </c>
-      <c r="D59" t="s">
-        <v>213</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B69" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B70" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B71" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="10">
-        <v>105</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64">
-        <v>107</v>
-      </c>
-      <c r="D64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65">
-        <v>107</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B72" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67">
-        <v>116</v>
-      </c>
-      <c r="D67" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B73" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79">
-        <v>103</v>
-      </c>
-      <c r="D79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83">
-        <v>131</v>
-      </c>
-      <c r="D83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86">
-        <v>107</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>345</v>
-      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7" t="s">
         <v>209</v>
       </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
-      <sortCondition ref="A1:A93"/>
+      <sortCondition ref="C1:C93"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2634,7 +2991,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="155.83203125" customWidth="1"/>
+    <col min="2" max="2" width="205.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,7 +3105,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2771,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,46 +3155,46 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
         <v>263</v>
       </c>
-      <c r="B7" t="s">
-        <v>265</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2858,377 +3215,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="7">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="7">
+        <v>104</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="7">
+        <v>105</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D2">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D5" s="7">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="7">
+        <v>107</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="7">
+        <v>107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="7">
+        <v>110</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="7">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="7">
+        <v>112</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7">
+        <v>113</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="7">
+        <v>115</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="7">
+        <v>116</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="7">
+        <v>120</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="C15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="7">
+        <v>124</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="8">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="7">
+        <v>127</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10">
-        <v>112</v>
-      </c>
-      <c r="E10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="F16" s="8">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D11">
-        <v>113</v>
-      </c>
-      <c r="E11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12">
-        <v>116</v>
-      </c>
-      <c r="E12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>245</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15">
-        <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="G16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition ref="D1:D15"/>
+  <autoFilter ref="A1:G16" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+      <sortCondition ref="D1:D16"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3240,203 +3631,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="7">
+        <v>102</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="7">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="7">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="7">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="7">
+        <v>107</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="7">
+        <v>108</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="7">
+        <v>113</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="7">
+        <v>115</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="7">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C3">
-        <v>104</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C4">
-        <v>106</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7">
-        <v>115</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16">
-        <v>116</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17">
-        <v>107</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>282</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}"/>
+  <autoFilter ref="A1:F18" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
+      <sortCondition ref="C1:C18"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3445,561 +3929,658 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="7">
+        <v>107</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="7">
+        <v>107</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="7">
+        <v>107</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="7">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="7">
+        <v>107</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="7">
+        <v>107</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="7">
+        <v>107</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="7">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="7">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="16">
+        <v>106</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="7">
+        <v>106</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="7">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="7">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="7">
+        <v>117</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="7">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="7">
+        <v>101</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="7">
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="7">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="7">
+        <v>120</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="7">
+        <v>130</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C2">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C8">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>12</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C11">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>15</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>16</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18">
-        <v>112</v>
-      </c>
-      <c r="D18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>21</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C20">
-        <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C24">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C30">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C33">
-        <v>107</v>
-      </c>
-      <c r="D33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C34">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>328</v>
-      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F39" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-      <sortCondition ref="A1:A39"/>
+      <sortCondition ref="E1:E39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4008,150 +4589,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283EE1A-CA87-472E-B6B2-7DC97A7C5B80}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="16">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="16">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="7">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="16">
+        <v>105</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="7">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="7">
+        <v>132</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="7">
+        <v>132</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C4">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4163,113 +4799,120 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="7">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="7">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D2">
-        <v>101</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D4" s="7">
+        <v>106</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4">
-        <v>106</v>
-      </c>
-      <c r="F4">
+      <c r="D5" s="7">
+        <v>105</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4282,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642EC6D-AA27-4FDC-A28F-3545E59FFB76}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4353,11 +4996,11 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>247</v>
+      <c r="H2">
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4383,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -4408,11 +5051,11 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>247</v>
+      <c r="H4">
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -4431,11 +5074,11 @@
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>247</v>
+      <c r="H5">
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4461,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K6" t="s">
         <v>112</v>
@@ -4493,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
         <v>114</v>
@@ -4525,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
         <v>116</v>
@@ -4560,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K9" t="s">
         <v>112</v>
@@ -4585,11 +5228,11 @@
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>247</v>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4599,17 +5242,20 @@
       <c r="D11" s="2">
         <v>824</v>
       </c>
+      <c r="E11" t="s">
+        <v>357</v>
+      </c>
       <c r="F11" s="2">
         <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>247</v>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L11" t="s">
         <v>112</v>
@@ -4631,11 +5277,11 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s">
-        <v>247</v>
+      <c r="H12">
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K12" t="s">
         <v>112</v>
@@ -4660,11 +5306,11 @@
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>247</v>
+      <c r="H13">
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4687,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K14" t="s">
         <v>112</v>
@@ -4719,7 +5365,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" t="s">
         <v>115</v>
@@ -4748,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K16" t="s">
         <v>112</v>
@@ -4774,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
@@ -4800,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K18" t="s">
         <v>112</v>
@@ -4829,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4852,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4871,11 +5517,11 @@
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="H21" t="s">
-        <v>247</v>
+      <c r="H21">
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4898,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
         <v>112</v>
@@ -4921,7 +5567,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4941,7 +5587,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4960,11 +5606,11 @@
       <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" t="s">
-        <v>247</v>
+      <c r="H25">
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4987,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
         <v>112</v>
@@ -5009,11 +5655,11 @@
       <c r="G27" t="s">
         <v>64</v>
       </c>
-      <c r="H27" t="s">
-        <v>247</v>
+      <c r="H27">
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -5032,7 +5678,10 @@
       <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5052,11 +5701,11 @@
       <c r="G29" t="s">
         <v>66</v>
       </c>
-      <c r="H29" t="s">
-        <v>247</v>
+      <c r="H29">
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
         <v>112</v>
@@ -5085,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
         <v>112</v>
@@ -5107,11 +5756,11 @@
       <c r="G31" t="s">
         <v>68</v>
       </c>
-      <c r="H31" t="s">
-        <v>247</v>
+      <c r="H31">
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5130,11 +5779,11 @@
       <c r="G32" t="s">
         <v>69</v>
       </c>
-      <c r="H32" t="s">
-        <v>247</v>
+      <c r="H32">
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -5153,11 +5802,11 @@
       <c r="G33" t="s">
         <v>70</v>
       </c>
-      <c r="H33" t="s">
-        <v>247</v>
+      <c r="H33">
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5173,14 +5822,14 @@
       <c r="F34" s="2">
         <v>132</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H34" t="s">
-        <v>247</v>
+      <c r="H34">
+        <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5199,11 +5848,11 @@
       <c r="G35" t="s">
         <v>72</v>
       </c>
-      <c r="H35" t="s">
-        <v>247</v>
+      <c r="H35">
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5226,7 +5875,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s">
         <v>112</v>
@@ -5248,11 +5897,11 @@
       <c r="G37" t="s">
         <v>74</v>
       </c>
-      <c r="H37" t="s">
-        <v>247</v>
+      <c r="H37">
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5271,11 +5920,11 @@
       <c r="G38" t="s">
         <v>75</v>
       </c>
-      <c r="H38" t="s">
-        <v>247</v>
+      <c r="H38">
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5306,7 +5955,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -5618,7 +6267,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5632,16 +6281,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -5654,10 +6303,10 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5665,10 +6314,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5676,10 +6325,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5687,10 +6336,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5698,10 +6347,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5709,10 +6358,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
         <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5720,10 +6369,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5731,10 +6380,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
         <v>239</v>
-      </c>
-      <c r="C9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5742,10 +6391,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5753,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5A3D5-2874-5B47-82BC-571872FD78C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5042015-633B-384C-B4FA-C6F2366B32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="369">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>Mythx</t>
-  </si>
-  <si>
-    <t>[arbitrary-send]</t>
   </si>
   <si>
     <t>[calls-loop]</t>
@@ -1103,9 +1100,6 @@
     <t>SWC-127</t>
   </si>
   <si>
-    <t>105? 2?</t>
-  </si>
-  <si>
     <t>Ether_leak_verified</t>
   </si>
   <si>
@@ -1121,9 +1115,6 @@
     <t>SWC-115</t>
   </si>
   <si>
-    <t>10 [4] wrong</t>
-  </si>
-  <si>
     <t>Accepts_Ether</t>
   </si>
   <si>
@@ -1149,6 +1140,48 @@
   </si>
   <si>
     <t>Access of Uninitialized Pointer</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>Transaction Order Dependence (TOD)</t>
+  </si>
+  <si>
+    <t>Unhandled Exception?</t>
+  </si>
+  <si>
+    <t>Unchecked Call Return Value, Unhandled-Exceptions</t>
+  </si>
+  <si>
+    <t>[arbitrary-send,Unchecked-Send]</t>
+  </si>
+  <si>
+    <t>informational ,105? 2?</t>
+  </si>
+  <si>
+    <t>classified diff in [4] in JiuZhou &gt;&gt; Locked money</t>
+  </si>
+  <si>
+    <t>[4] also map to 132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOD? </t>
+  </si>
+  <si>
+    <t>10 [4] not map to DASP wrong (in JiuZhou DS)</t>
+  </si>
+  <si>
+    <t>[4] map [Transaction state Dependency, tx_result,Txorigin for authentication] to this</t>
+  </si>
+  <si>
+    <t>[4] map [Unchecked-Send, Unchkd_send] to this and to 104</t>
+  </si>
+  <si>
+    <t>[4] also map [Unhandled exceptions] to 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4] </t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1262,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1258,7 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,7 +1314,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,8 +1324,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1662,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1673,1307 +1721,1313 @@
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="15">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="6">
+        <v>130</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="6">
+        <v>119</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="6">
+        <v>106</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="15">
+        <v>109</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="15">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="6">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="15">
+        <v>105</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="15">
+        <v>105</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="6">
+        <v>106</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="6">
+        <v>107</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="6">
+        <v>104</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="6">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>6</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="6">
+        <v>132</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="6">
+        <v>119</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="6">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="6">
+        <v>107</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="6">
+        <v>115</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="6">
+        <v>104</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>4</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="6">
+        <v>105</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="15">
+        <v>135</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="6">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="6">
+        <v>119</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="6">
+        <v>10</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="6">
+        <v>113</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="6">
+        <v>5</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="9">
+        <v>105</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="6">
+        <v>107</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="6">
+        <v>107</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="6">
+        <v>116</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="6">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="F67" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="6">
+        <v>110</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <v>10</v>
+      </c>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="6">
+        <v>104</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B79" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="6">
+        <v>103</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="6">
+        <v>10</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="7">
-        <v>103</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="6">
+        <v>131</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="6">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="7">
-        <v>104</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>48</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="7">
-        <v>104</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>49</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="7">
-        <v>104</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="7">
-        <v>104</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>75</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="7">
-        <v>104</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="10">
-        <v>105</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="10">
-        <v>105</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="10">
-        <v>105</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>62</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="10">
-        <v>105</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="7">
-        <v>106</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="7">
-        <v>106</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>25</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="6">
+        <v>128</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <v>5</v>
+      </c>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="6">
         <v>107</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>45</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="7">
-        <v>107</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>63</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="7">
-        <v>107</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>64</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="7">
-        <v>107</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>85</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="F86" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="7">
-        <v>107</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="7">
-        <v>109</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>68</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="7">
-        <v>110</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>58</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="7">
-        <v>113</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="7">
-        <v>5</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>47</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="7">
-        <v>115</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>66</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="7">
-        <v>116</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="7">
-        <v>8</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="7">
-        <v>119</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="7">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="7">
-        <v>119</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="7">
-        <v>119</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>29</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="7">
-        <v>120</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>13</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="7">
-        <v>124</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="7">
-        <v>130</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>82</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="7">
-        <v>131</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="7">
-        <v>10</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>35</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="15">
-        <v>132</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
-        <v>5</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>3</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>4</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>5</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>6</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>7</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>8</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>9</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>15</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>16</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>19</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>21</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>22</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>23</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>24</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>26</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>27</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>30</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>31</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>32</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>33</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>34</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>36</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>38</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>39</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>40</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>41</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>42</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>43</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>44</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>46</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>50</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>52</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>53</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>55</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>56</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>57</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>59</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>60</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>61</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>65</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>67</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>69</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>70</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>71</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>72</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>73</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>74</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>76</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>77</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>79</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>80</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>81</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
-        <v>83</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
-        <v>84</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>92</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
-      <sortCondition ref="C1:C93"/>
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3144,57 +3198,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
-        <v>220</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
         <v>282</v>
       </c>
-      <c r="B8" t="s">
-        <v>283</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3234,385 +3288,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="6">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="6">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="6">
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="6">
+        <v>106</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="6">
+        <v>107</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="6">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="6">
+        <v>110</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="6">
+        <v>110</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="6">
+        <v>112</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="7">
-        <v>101</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="C11" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="6">
+        <v>113</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="6">
+        <v>115</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="7">
-        <v>104</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="7">
-        <v>105</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="G12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>116</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="6">
+        <v>120</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="6">
+        <v>124</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="7">
-        <v>106</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="7">
-        <v>107</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="7">
-        <v>107</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="7">
-        <v>110</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="G15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="6">
+        <v>127</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="7">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="7">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D10" s="7">
-        <v>112</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="7">
-        <v>113</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="8">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="7">
-        <v>115</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="7">
-        <v>116</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="8">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="7">
-        <v>120</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="8">
-        <v>6</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="7">
-        <v>124</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="7">
-        <v>127</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="8">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
+      <c r="G16" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -3629,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3645,280 +3699,289 @@
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="F1" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="6">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="6">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="6">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="6">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="6">
+        <v>102</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="6">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="6">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="6">
+        <v>116</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="6">
+        <v>107</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="6">
+        <v>108</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="7">
-        <v>102</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="7">
-        <v>104</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="7">
-        <v>104</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="7">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="7">
-        <v>107</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="7">
-        <v>108</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="7">
-        <v>113</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="7">
-        <v>115</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="7">
-        <v>116</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="7">
-        <v>120</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
-      <sortCondition ref="C1:C18"/>
+      <sortCondition ref="A1:A18"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3929,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3944,643 +4007,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>211</v>
+      <c r="F1" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="6">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="6">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="14">
+        <v>106</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="6">
         <v>107</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C7" s="6">
         <v>107</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="F7" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="6">
+        <v>107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="6">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="6">
+        <v>101</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="6">
+        <v>101</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="6">
+        <v>112</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="6">
+        <v>124</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="6">
+        <v>117</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="6">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="6">
+        <v>130</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="6">
+        <v>112</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="6">
+        <v>120</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="6">
+        <v>106</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="6">
         <v>107</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D32" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="F32" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="6">
         <v>107</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="F33" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="6">
         <v>107</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D34" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>32</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="7">
-        <v>107</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="F34" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="7">
-        <v>107</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="7">
-        <v>105</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="7">
-        <v>105</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="16">
-        <v>106</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="7">
-        <v>106</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" s="7">
-        <v>112</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="7">
-        <v>112</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="7">
-        <v>117</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="7">
-        <v>124</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="7">
-        <v>101</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>11</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" s="7">
-        <v>101</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="7">
-        <v>101</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C24" s="7">
-        <v>120</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
-        <v>6</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>26</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="7">
-        <v>130</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>12</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>15</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>16</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>20</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>21</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>25</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F39" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-      <sortCondition ref="E1:E39"/>
+      <sortCondition ref="A1:A39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4592,7 +4657,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4600,194 +4665,198 @@
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>211</v>
+      <c r="F1" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="14">
         <v>106</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="D2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="14">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>213</v>
+      <c r="F2" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="6">
+        <v>106</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="14">
+        <v>105</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="6">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="7">
-        <v>106</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="16">
-        <v>105</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="7">
-        <v>105</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="C6" s="6">
+        <v>132</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="6">
+        <v>132</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="7">
-        <v>132</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C7" s="7">
-        <v>132</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4814,106 +4883,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>211</v>
+      <c r="G1" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="6">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="6">
+        <v>101</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="6">
+        <v>106</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="7">
-        <v>101</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="C5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="6">
+        <v>105</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="7">
-        <v>101</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="7">
-        <v>106</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="7">
-        <v>105</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>213</v>
+      <c r="G5" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4925,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642EC6D-AA27-4FDC-A28F-3545E59FFB76}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5000,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5026,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -5055,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5078,7 +5147,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -5098,13 +5167,13 @@
         <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K6" t="s">
         <v>112</v>
@@ -5136,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="L7" t="s">
         <v>112</v>
@@ -5168,10 +5237,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
         <v>112</v>
@@ -5203,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K9" t="s">
         <v>112</v>
@@ -5232,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5243,7 +5312,7 @@
         <v>824</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F11" s="2">
         <v>109</v>
@@ -5255,7 +5324,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L11" t="s">
         <v>112</v>
@@ -5281,7 +5350,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K12" t="s">
         <v>112</v>
@@ -5310,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5333,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K14" t="s">
         <v>112</v>
@@ -5364,11 +5433,11 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" t="s">
-        <v>244</v>
+      <c r="I15" s="18" t="s">
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" t="s">
         <v>112</v>
@@ -5387,14 +5456,14 @@
       <c r="F16" s="2">
         <v>114</v>
       </c>
-      <c r="G16" t="s">
-        <v>53</v>
+      <c r="G16" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="K16" t="s">
         <v>112</v>
@@ -5419,8 +5488,8 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
-        <v>244</v>
+      <c r="I17" s="18" t="s">
+        <v>365</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
@@ -5446,7 +5515,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K18" t="s">
         <v>112</v>
@@ -5475,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5498,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -5521,7 +5590,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -5544,7 +5613,7 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
         <v>112</v>
@@ -5567,7 +5636,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -5587,7 +5656,7 @@
         <v>61</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -5610,7 +5679,7 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -5633,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
         <v>112</v>
@@ -5659,7 +5728,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -5678,11 +5747,11 @@
       <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -5705,7 +5774,7 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
         <v>112</v>
@@ -5734,7 +5803,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
         <v>112</v>
@@ -5760,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5783,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -5806,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5822,14 +5891,14 @@
       <c r="F34" s="2">
         <v>132</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>71</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
-      <c r="I34" t="s">
-        <v>348</v>
+      <c r="I34" s="16" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5852,7 +5921,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5875,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s">
         <v>112</v>
@@ -5901,7 +5970,7 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5924,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5955,7 +6024,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -6281,16 +6350,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -6303,10 +6372,10 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6314,10 +6383,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6325,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
         <v>228</v>
-      </c>
-      <c r="C4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6336,10 +6405,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
         <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6347,10 +6416,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6358,10 +6427,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
         <v>234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6369,10 +6438,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6380,10 +6449,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
         <v>238</v>
-      </c>
-      <c r="C9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6391,10 +6460,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6402,7 +6471,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/VulnerablityMap.xlsx
+++ b/Mapping/VulnerablityMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikahjs/Documents/MyFiles/PhDwork/MultiTagging/Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5042015-633B-384C-B4FA-C6F2366B32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36D0289-84B1-0641-A376-078CE745A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
+    <workbookView xWindow="680" yWindow="1060" windowWidth="25800" windowHeight="17180" activeTab="11" xr2:uid="{7B76C7B8-C702-4BBB-AFE9-C0434D238B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Slither" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="DASP" sheetId="12" r:id="rId9"/>
     <sheet name="OWASP Top 10" sheetId="5" r:id="rId10"/>
     <sheet name="Ref" sheetId="2" r:id="rId11"/>
+    <sheet name="CGT_Update" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mythril!$A$1:$G$16</definedName>
@@ -69,8 +70,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CE8AD605-431B-8B4F-874B-03CD6E7E2501}</author>
+  </authors>
+  <commentList>
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{CE8AD605-431B-8B4F-874B-03CD6E7E2501}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only one sample in the data, considered safe by all the tools.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="495">
   <si>
     <t>Vulnerability</t>
   </si>
@@ -1133,9 +1152,6 @@
     <t>KA</t>
   </si>
   <si>
-    <t>[2] 120? 6?</t>
-  </si>
-  <si>
     <t>Dependence on tx.origin</t>
   </si>
   <si>
@@ -1148,27 +1164,15 @@
     <t>Transaction Order Dependence (TOD)</t>
   </si>
   <si>
-    <t>Unhandled Exception?</t>
-  </si>
-  <si>
     <t>Unchecked Call Return Value, Unhandled-Exceptions</t>
   </si>
   <si>
     <t>[arbitrary-send,Unchecked-Send]</t>
   </si>
   <si>
-    <t>informational ,105? 2?</t>
-  </si>
-  <si>
-    <t>classified diff in [4] in JiuZhou &gt;&gt; Locked money</t>
-  </si>
-  <si>
     <t>[4] also map to 132</t>
   </si>
   <si>
-    <t xml:space="preserve">TOD? </t>
-  </si>
-  <si>
     <t>10 [4] not map to DASP wrong (in JiuZhou DS)</t>
   </si>
   <si>
@@ -1182,6 +1186,399 @@
   </si>
   <si>
     <t xml:space="preserve">[4] </t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>﻿Doublade</t>
+  </si>
+  <si>
+    <t>﻿lowlevelcall_result</t>
+  </si>
+  <si>
+    <t>﻿reentrancy</t>
+  </si>
+  <si>
+    <t>﻿selfdestruct_result</t>
+  </si>
+  <si>
+    <t>﻿tx_result</t>
+  </si>
+  <si>
+    <t>﻿unexpectedrevert_result</t>
+  </si>
+  <si>
+    <t>Changed</t>
+  </si>
+  <si>
+    <t>SWC (In CGT)</t>
+  </si>
+  <si>
+    <t>DASP (In CGT)</t>
+  </si>
+  <si>
+    <t>﻿JiuZhou</t>
+  </si>
+  <si>
+    <t>﻿byte[]</t>
+  </si>
+  <si>
+    <t>﻿Any type of specified function variable</t>
+  </si>
+  <si>
+    <t>﻿Change the contract status in the view or constant function</t>
+  </si>
+  <si>
+    <t>﻿Complex fallback function</t>
+  </si>
+  <si>
+    <t>﻿continue in do-while</t>
+  </si>
+  <si>
+    <t>﻿DOS by gaslimit</t>
+  </si>
+  <si>
+    <t>﻿DOS by non-existent address or contract</t>
+  </si>
+  <si>
+    <t>﻿Forced accept ethers</t>
+  </si>
+  <si>
+    <t>﻿Hidden built-in symbols</t>
+  </si>
+  <si>
+    <t>﻿Hide state variables</t>
+  </si>
+  <si>
+    <t>﻿Implicit visibility level</t>
+  </si>
+  <si>
+    <t>﻿Improper use of assert</t>
+  </si>
+  <si>
+    <t>﻿Improper use of require</t>
+  </si>
+  <si>
+    <t>﻿Improper use of revert</t>
+  </si>
+  <si>
+    <t>﻿Incorrect inheritance order</t>
+  </si>
+  <si>
+    <t>﻿Integer division</t>
+  </si>
+  <si>
+    <t>﻿integer overflow and underflo</t>
+  </si>
+  <si>
+    <t>﻿Integer signedness</t>
+  </si>
+  <si>
+    <t>﻿Integer truncation</t>
+  </si>
+  <si>
+    <t>﻿Invariant in loop</t>
+  </si>
+  <si>
+    <t>﻿Invariant is not declared constant</t>
+  </si>
+  <si>
+    <t>﻿Locked money</t>
+  </si>
+  <si>
+    <t>﻿Non-public variables are accessed by public or external function</t>
+  </si>
+  <si>
+    <t>﻿Non-standard naming</t>
+  </si>
+  <si>
+    <t>﻿Nonstandard token interface</t>
+  </si>
+  <si>
+    <t>﻿Pre-sent ether</t>
+  </si>
+  <si>
+    <t>﻿Public data</t>
+  </si>
+  <si>
+    <t>﻿Randomness affected by miners</t>
+  </si>
+  <si>
+    <t>﻿Re-entrancy vulnerability</t>
+  </si>
+  <si>
+    <t>﻿Removes dynamic array elements</t>
+  </si>
+  <si>
+    <t>﻿Replay attack</t>
+  </si>
+  <si>
+    <t>﻿Right-To-Left-Overridecontrolcharacter (U+202E)</t>
+  </si>
+  <si>
+    <t>﻿Short address attack</t>
+  </si>
+  <si>
+    <t>﻿Signature with wrong parameter</t>
+  </si>
+  <si>
+    <t>﻿Storage overlap attack</t>
+  </si>
+  <si>
+    <t>﻿Suicidal contract</t>
+  </si>
+  <si>
+    <t>﻿The call address or data are externally controlled</t>
+  </si>
+  <si>
+    <t>﻿Time affected by miners</t>
+  </si>
+  <si>
+    <t>﻿too many digits</t>
+  </si>
+  <si>
+    <t>﻿Transaction order dependence</t>
+  </si>
+  <si>
+    <t>﻿Txorigin for authentication</t>
+  </si>
+  <si>
+    <t>﻿Unhandled exceptions</t>
+  </si>
+  <si>
+    <t>﻿Uninitialized local variables</t>
+  </si>
+  <si>
+    <t>﻿Uninitialized state variables</t>
+  </si>
+  <si>
+    <t>﻿Uninitialized storage variable</t>
+  </si>
+  <si>
+    <t>﻿Unlimited compiler versions</t>
+  </si>
+  <si>
+    <t>﻿Unused public functions within a contract should be declared external</t>
+  </si>
+  <si>
+    <t>﻿Use assembly code return in the constructor</t>
+  </si>
+  <si>
+    <t>﻿Use deprecated built-in symbols</t>
+  </si>
+  <si>
+    <t>﻿Wasteful contract</t>
+  </si>
+  <si>
+    <t>﻿Write the wrong constructor name</t>
+  </si>
+  <si>
+    <t>﻿Wrong operator</t>
+  </si>
+  <si>
+    <t>﻿Sbcurated</t>
+  </si>
+  <si>
+    <t>﻿access_control-105</t>
+  </si>
+  <si>
+    <t>﻿access_control-106</t>
+  </si>
+  <si>
+    <t>﻿access_control-112</t>
+  </si>
+  <si>
+    <t>﻿access_control-115</t>
+  </si>
+  <si>
+    <t>﻿access_control-118</t>
+  </si>
+  <si>
+    <t>﻿access_control-124</t>
+  </si>
+  <si>
+    <t>﻿arithmetic</t>
+  </si>
+  <si>
+    <t>﻿bad_randomness</t>
+  </si>
+  <si>
+    <t>﻿denial_of_service-113</t>
+  </si>
+  <si>
+    <t>﻿denial_of_service-128</t>
+  </si>
+  <si>
+    <t>﻿front_running</t>
+  </si>
+  <si>
+    <t>﻿other-109</t>
+  </si>
+  <si>
+    <t>﻿short_addresses</t>
+  </si>
+  <si>
+    <t>﻿time_manipulation</t>
+  </si>
+  <si>
+    <t>﻿unchecked_low_level_calls</t>
+  </si>
+  <si>
+    <t>﻿SolidiFI</t>
+  </si>
+  <si>
+    <t>﻿Overflow-Underfl</t>
+  </si>
+  <si>
+    <t>﻿Re-entrancy</t>
+  </si>
+  <si>
+    <t>﻿Timestamp-Dependency</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>﻿tx.origin</t>
+  </si>
+  <si>
+    <t>﻿Unchecked-Send</t>
+  </si>
+  <si>
+    <t>﻿Unhandled-Exceptions</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>https://swcregistry.io/docs/SWC-106/</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DS_Ref</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1912.04466.pdf</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3395363.3397385</t>
+  </si>
+  <si>
+    <t>https://dasp.co/#item-4</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9240706  and https://github.com/xf97/JiuZhou/blob/master/Jiuzhou_Full_version.pdf</t>
+  </si>
+  <si>
+    <t>https://cwe.mitre.org/data/definitions/667.html</t>
+  </si>
+  <si>
+    <t>Lack of Proper Signature Verification</t>
+  </si>
+  <si>
+    <t>https://cwe.mitre.org/data/definitions/347.html</t>
+  </si>
+  <si>
+    <t>https://cwe.mitre.org/data/definitions/345.html</t>
+  </si>
+  <si>
+    <t>https://swcregistry.io/docs/SWC-117/</t>
+  </si>
+  <si>
+    <t>https://swcregistry.io/docs/SWC-128/</t>
+  </si>
+  <si>
+    <t>May destroy ethers.</t>
+  </si>
+  <si>
+    <t>It affects the logic of the contract</t>
+  </si>
+  <si>
+    <t>"throw" is deprecated</t>
+  </si>
+  <si>
+    <t>"sha3" is deprecated</t>
+  </si>
+  <si>
+    <t>https://mythril-classic.readthedocs.io/en/develop/analysis-modules.html</t>
+  </si>
+  <si>
+    <t>it should be 104,4 (it check Unhandled-Exceptions)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>missing_assignment</t>
+  </si>
+  <si>
+    <t>array_length_outside_loop</t>
+  </si>
+  <si>
+    <t>init_variables_with_default_value</t>
+  </si>
+  <si>
+    <t>state_variable_read_in_a_loop</t>
+  </si>
+  <si>
+    <t>unnecessary_checked_arithmetic_in_loop</t>
+  </si>
+  <si>
+    <t>use_custom_error_not_require</t>
+  </si>
+  <si>
+    <t>use_multiple_require</t>
+  </si>
+  <si>
+    <t>use_nested_if</t>
+  </si>
+  <si>
+    <t>use_prefix_decrement_not_postfix</t>
+  </si>
+  <si>
+    <t>use_prefix_increment_not_postfix</t>
+  </si>
+  <si>
+    <t>use_short_revert_string</t>
+  </si>
+  <si>
+    <t>non_payable_constructor</t>
+  </si>
+  <si>
+    <t>non_optimal_variables_swap</t>
+  </si>
+  <si>
+    <t>inefficient_state_variable_increment</t>
+  </si>
+  <si>
+    <t>Informational</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>﻿Hash Collisions With Multiple Variable Length Arguments</t>
+  </si>
+  <si>
+    <t>Mapped to 10 to be similar to the bases it should be 5</t>
+  </si>
+  <si>
+    <t>113,5</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1234,24 +1631,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1271,6 +1650,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1319,23 +1716,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1369,7 +1814,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0F4C161-25D4-4506-A15E-D053D0D04EF1}" name="Table1" displayName="Table1" ref="A1:L38" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0F4C161-25D4-4506-A15E-D053D0D04EF1}" name="Table1" displayName="Table1" ref="A1:L38" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:L38" xr:uid="{A0F4C161-25D4-4506-A15E-D053D0D04EF1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
     <sortCondition ref="F1:F38"/>
@@ -1378,9 +1823,9 @@
     <tableColumn id="1" xr3:uid="{996FDD65-F5C0-4CFB-BB15-2AE1F5F5B067}" name="#"/>
     <tableColumn id="7" xr3:uid="{FDFD9152-7E1B-43BF-BE37-4783DC7A872B}" name="Vulnerability"/>
     <tableColumn id="9" xr3:uid="{54D77A0B-B6B6-41A5-B9B4-7A190978D1AD}" name="OWASP Top 10"/>
-    <tableColumn id="6" xr3:uid="{CD173F6A-C3CA-432E-B34A-57EAC2714499}" name="CWE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CD173F6A-C3CA-432E-B34A-57EAC2714499}" name="CWE" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{85E80A1F-BF20-424A-9A22-4D2221CE4257}" name="CWE Title"/>
-    <tableColumn id="8" xr3:uid="{A310132D-519C-4DC4-8E7F-FD2AE4090EDD}" name="SWC" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{A310132D-519C-4DC4-8E7F-FD2AE4090EDD}" name="SWC" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2B1F7D0F-CA88-45FF-A9BA-C8667E48CB2D}" name="SWC Title"/>
     <tableColumn id="3" xr3:uid="{9CF6B993-ADFE-40DC-B3D0-B47EAF643DCB}" name="DASP Top 10"/>
     <tableColumn id="12" xr3:uid="{EA2A14CF-60D8-2645-8707-C65BE60909D6}" name="REF"/>
@@ -1393,20 +1838,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D32EF55-A603-964D-AC77-0CA69157FC2D}" name="Table4" displayName="Table4" ref="A1:B38" totalsRowShown="0">
+  <autoFilter ref="A1:B38" xr:uid="{1D32EF55-A603-964D-AC77-0CA69157FC2D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A4F4983C-D539-B248-A26B-B2FE8E36EEBA}" name="Code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{971701C0-9830-4E41-9979-B00C9D03B4BA}" name="Title"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4852B7E0-8FA3-B347-8088-9EB40A73BF86}" name="Table5" displayName="Table5" ref="A1:D11" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D11" xr:uid="{4852B7E0-8FA3-B347-8088-9EB40A73BF86}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3CEA2AA6-FBFB-2C45-AED8-32BE2B4BE048}" name="Rank" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2BB08A97-A20B-064E-86E9-86F8B735851B}" name="Vulnerability" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D6F007C8-2DE7-3340-83FA-E64EA56B3C75}" name="Known as or related "/>
+    <tableColumn id="4" xr3:uid="{7C949B71-484F-8D42-80D0-ABCC48925B84}" name="Causes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04CC9537-F4FF-42FF-B804-92FB708BBBAC}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{04CC9537-F4FF-42FF-B804-92FB708BBBAC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{058EA076-E6FC-4F3F-B8A2-C036ECFC32AA}" name="Title"/>
+    <tableColumn id="1" xr3:uid="{058EA076-E6FC-4F3F-B8A2-C036ECFC32AA}" name="Title" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A21A812D-3FA5-4020-91B8-B4F0E230E919}" name="Description"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78FDCB05-AF9C-9C4B-94B5-24F89550A538}" name="Table3" displayName="Table3" ref="A1:I82" totalsRowShown="0">
+  <autoFilter ref="A1:I82" xr:uid="{78FDCB05-AF9C-9C4B-94B5-24F89550A538}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I82">
+    <sortCondition ref="A1:A82"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A0E2C7F9-2304-2543-A886-53911484A50D}" name="DS"/>
+    <tableColumn id="2" xr3:uid="{39839CA3-D738-6447-AAF4-B06C9CA66380}" name="Property"/>
+    <tableColumn id="3" xr3:uid="{BD5E3BFA-66F0-464B-BF01-94445B4674D4}" name="SWC (In CGT)"/>
+    <tableColumn id="4" xr3:uid="{FED29882-E6DC-A742-955E-BEE50D934E1E}" name="DASP (In CGT)"/>
+    <tableColumn id="5" xr3:uid="{880F3AC9-E0DD-564B-A699-F9F45C900630}" name="Changed" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F4A56933-F701-8D4C-8E82-C273D549B933}" name="SWC"/>
+    <tableColumn id="7" xr3:uid="{50DC83FC-6DBE-1F4F-9231-30C70227FEF6}" name="DASP"/>
+    <tableColumn id="8" xr3:uid="{229476F3-EFAA-7543-A108-699EA90567C6}" name="Ref"/>
+    <tableColumn id="9" xr3:uid="{347796C6-E276-B94E-A71C-F6B5305C2DCF}" name="DS_Ref"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1444,7 +1934,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1550,7 +2040,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1692,7 +2182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1706,12 +2196,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E56" dT="2024-03-03T17:01:12.12" personId="{D39A4259-1BD2-6C43-ACF0-FAF03BECF1BB}" id="{CE8AD605-431B-8B4F-874B-03CD6E7E2501}">
+    <text>Only one sample in the data, considered safe by all the tools.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A44" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1721,140 +2219,144 @@
     <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="6">
         <v>105</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="20">
+        <v>133</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <v>10</v>
+      </c>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1914,19 +2416,19 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="6">
         <v>109</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="15">
-        <v>10</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -1947,41 +2449,41 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="6">
         <v>105</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>2</v>
       </c>
       <c r="F18" s="6"/>
@@ -1990,29 +2492,31 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="6">
         <v>105</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -2035,28 +2539,32 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="20">
+        <v>129</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <v>10</v>
+      </c>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -2067,26 +2575,32 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <v>10</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C26" s="6">
@@ -2099,28 +2613,28 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -2155,92 +2669,98 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="21">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="21">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="28">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="28">
         <v>132</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28">
+        <v>10</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
@@ -2261,88 +2781,102 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20">
+        <v>10</v>
+      </c>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
+        <v>10</v>
+      </c>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20">
+        <v>10</v>
+      </c>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="28">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28">
+        <v>10</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
+        <v>10</v>
+      </c>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="22">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22">
+        <v>3</v>
+      </c>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -2365,16 +2899,18 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20">
+        <v>10</v>
+      </c>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
@@ -2423,13 +2959,13 @@
         <v>105</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2439,50 +2975,56 @@
       <c r="B51" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6">
+        <v>109</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>10</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="6">
         <v>135</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6">
         <v>10</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20">
+        <v>10</v>
+      </c>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -2503,40 +3045,44 @@
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="21">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20">
+        <v>10</v>
+      </c>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="20">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20">
+        <v>10</v>
+      </c>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -2559,56 +3105,60 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="20">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="20">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="20">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="C62" s="20">
+        <v>129</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20">
+        <v>10</v>
+      </c>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="22">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="22">
         <v>105</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22">
         <v>2</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -2634,7 +3184,7 @@
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C65" s="6">
@@ -2647,48 +3197,52 @@
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="20">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="C66" s="20">
+        <v>126</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20">
+        <v>10</v>
+      </c>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="22">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="22">
         <v>116</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="22">
         <v>8</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>352</v>
-      </c>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="20">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20">
+        <v>10</v>
+      </c>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -2707,76 +3261,96 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="20">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20">
+        <v>10</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="20">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20">
+        <v>10</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="20">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="C72" s="20">
+        <v>111</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20">
+        <v>10</v>
+      </c>
+      <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="20">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20">
+        <v>10</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="20">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20">
+        <v>10</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="21">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -2799,28 +3373,36 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="20">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20">
+        <v>10</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="20">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20">
+        <v>10</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -2841,16 +3423,20 @@
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="20">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="C80" s="20">
+        <v>135</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20">
+        <v>10</v>
+      </c>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
@@ -2859,9 +3445,13 @@
       <c r="B81" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="6">
+        <v>102</v>
+      </c>
       <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="6">
+        <v>10</v>
+      </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2871,9 +3461,13 @@
       <c r="B82" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="6">
+        <v>135</v>
+      </c>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="6">
+        <v>10</v>
+      </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2895,38 +3489,42 @@
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="20">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="20">
         <v>128</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6">
+      <c r="D84" s="20"/>
+      <c r="E84" s="20">
         <v>5</v>
       </c>
-      <c r="F84" s="6"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="20">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="C85" s="20">
+        <v>135</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20">
+        <v>10</v>
+      </c>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C86" s="6">
@@ -2936,21 +3534,23 @@
       <c r="E86" s="6">
         <v>1</v>
       </c>
-      <c r="F86" s="10" t="s">
-        <v>360</v>
-      </c>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="20">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20">
+        <v>10</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
@@ -2961,68 +3561,82 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6">
+        <v>10</v>
+      </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="20">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20">
+        <v>10</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="20">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20">
+        <v>10</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="20">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20">
+        <v>10</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="21">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="21">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F93" xr:uid="{52D15B12-FED7-477E-BE07-615F6A778B56}">
@@ -3039,20 +3653,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="205.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
@@ -3063,7 +3677,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -3071,7 +3685,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
@@ -3079,7 +3693,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
@@ -3087,7 +3701,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -3095,7 +3709,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -3103,7 +3717,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -3111,7 +3725,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -3119,7 +3733,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -3127,7 +3741,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
@@ -3135,7 +3749,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
@@ -3267,12 +3881,1561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA710F72-2AD5-0E42-81EE-795136C80738}">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="106" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4">
+        <v>113</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="26">
+        <v>132</v>
+      </c>
+      <c r="D6" s="26">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" s="26">
+        <v>106</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18">
+        <v>117</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22">
+        <v>101</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23">
+        <v>103</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24">
+        <v>104</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25">
+        <v>105</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26">
+        <v>106</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27">
+        <v>107</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29">
+        <v>109</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30">
+        <v>109</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31">
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32">
+        <v>111</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33">
+        <v>112</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34">
+        <v>113</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C35">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36">
+        <v>115</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37">
+        <v>116</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38">
+        <v>117</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" t="s">
+        <v>425</v>
+      </c>
+      <c r="C39">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40">
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42">
+        <v>123</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C44">
+        <v>125</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45">
+        <v>127</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47">
+        <v>129</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48">
+        <v>130</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49">
+        <v>132</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49">
+        <v>106</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>374</v>
+      </c>
+      <c r="B50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C50">
+        <v>132</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51">
+        <v>133</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C52">
+        <v>136</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53">
+        <v>136</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54">
+        <v>995</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55">
+        <v>996</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="F55" t="s">
+        <v>460</v>
+      </c>
+      <c r="H55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" s="15">
+        <v>997</v>
+      </c>
+      <c r="D56" s="15">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F56">
+        <v>132</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57">
+        <v>999</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58">
+        <v>999</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>374</v>
+      </c>
+      <c r="B59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59">
+        <v>999</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60">
+        <v>101</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>427</v>
+      </c>
+      <c r="B61" t="s">
+        <v>442</v>
+      </c>
+      <c r="C61">
+        <v>104</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C62">
+        <v>105</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B63" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63">
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64">
+        <v>107</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>427</v>
+      </c>
+      <c r="B65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65">
+        <v>109</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>427</v>
+      </c>
+      <c r="B66" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>427</v>
+      </c>
+      <c r="B67" t="s">
+        <v>436</v>
+      </c>
+      <c r="C67">
+        <v>113</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>427</v>
+      </c>
+      <c r="B68" t="s">
+        <v>438</v>
+      </c>
+      <c r="C68">
+        <v>114</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>427</v>
+      </c>
+      <c r="B69" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69">
+        <v>115</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70" t="s">
+        <v>441</v>
+      </c>
+      <c r="C70">
+        <v>116</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71">
+        <v>118</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>427</v>
+      </c>
+      <c r="B72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C72">
+        <v>120</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>427</v>
+      </c>
+      <c r="B73" t="s">
+        <v>433</v>
+      </c>
+      <c r="C73">
+        <v>124</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>427</v>
+      </c>
+      <c r="B74" t="s">
+        <v>437</v>
+      </c>
+      <c r="C74">
+        <v>128</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>427</v>
+      </c>
+      <c r="B75" t="s">
+        <v>440</v>
+      </c>
+      <c r="C75">
+        <v>995</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
+        <v>444</v>
+      </c>
+      <c r="C76">
+        <v>101</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>443</v>
+      </c>
+      <c r="B77" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77">
+        <v>104</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C78" s="15">
+        <v>105</v>
+      </c>
+      <c r="D78" s="15">
+        <v>2</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F78" s="15">
+        <v>104</v>
+      </c>
+      <c r="G78" s="15">
+        <v>4</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>443</v>
+      </c>
+      <c r="B79" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79">
+        <v>107</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>443</v>
+      </c>
+      <c r="B80" t="s">
+        <v>447</v>
+      </c>
+      <c r="C80">
+        <v>114</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>443</v>
+      </c>
+      <c r="B81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81">
+        <v>115</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" t="s">
+        <v>446</v>
+      </c>
+      <c r="C82">
+        <v>116</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{6CC856F8-3E18-6845-9199-32F23FDAF9D5}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{1E6C7AD5-EB19-B842-91CC-0A82606A26D2}"/>
+    <hyperlink ref="I78" r:id="rId3" xr:uid="{73A6F9CE-D815-1F43-9BFB-48DE76C94D3F}"/>
+    <hyperlink ref="H78" r:id="rId4" location="item-4" xr:uid="{BFB774D9-D222-814A-81B2-053268C3DF5E}"/>
+    <hyperlink ref="I50" r:id="rId5" display="https://ieeexplore.ieee.org/abstract/document/9240706 " xr:uid="{4669D67E-16F0-C341-9F25-CB053AC50BBA}"/>
+    <hyperlink ref="I49" r:id="rId6" display="https://ieeexplore.ieee.org/abstract/document/9240706 " xr:uid="{7C6747B9-5E5D-B344-A236-7615CB015F9E}"/>
+    <hyperlink ref="H49" r:id="rId7" xr:uid="{9399DD53-D5F1-D742-BF17-1A47520EFF38}"/>
+    <hyperlink ref="H56" r:id="rId8" xr:uid="{DAC258AD-4A5E-FE42-AA5B-C41AEFB32CD5}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{7CF8ED2E-3AD0-1849-9AE6-D9329CDFF0A4}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{64CCB21E-8F72-1447-BFDF-F1599FBC95B3}"/>
+    <hyperlink ref="I10" r:id="rId11" display="https://ieeexplore.ieee.org/abstract/document/9240706 " xr:uid="{5639C5EB-2745-1742-A9E6-EAB72ED80022}"/>
+    <hyperlink ref="I18" r:id="rId12" display="https://ieeexplore.ieee.org/abstract/document/9240706 " xr:uid="{650F0969-16B8-5D46-A1D8-EDCCA44937BD}"/>
+    <hyperlink ref="I56" r:id="rId13" display="https://ieeexplore.ieee.org/abstract/document/9240706 " xr:uid="{C10BDBF2-B15D-BF46-B0F1-9D93FE12F72F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId14"/>
+  <tableParts count="1">
+    <tablePart r:id="rId15"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701418C2-0B0F-4393-9AFB-5F5D821ADFF5}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3284,6 +5447,7 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3309,6 +5473,9 @@
       <c r="G1" s="8" t="s">
         <v>210</v>
       </c>
+      <c r="H1" s="18" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -3324,14 +5491,13 @@
         <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3348,14 +5514,13 @@
         <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3372,14 +5537,13 @@
         <v>105</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3396,14 +5560,13 @@
         <v>106</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3420,14 +5583,13 @@
         <v>107</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3444,14 +5606,13 @@
         <v>107</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3468,13 +5629,14 @@
         <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F8" s="7">
         <v>10</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>243</v>
+      <c r="G8" s="6"/>
+      <c r="H8" s="19" t="s">
+        <v>473</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3492,14 +5654,13 @@
         <v>110</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3516,14 +5677,13 @@
         <v>112</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3540,14 +5700,13 @@
         <v>113</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3555,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>345</v>
@@ -3564,14 +5723,13 @@
         <v>115</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3588,14 +5746,13 @@
         <v>116</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F13" s="7">
         <v>8</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3612,14 +5769,13 @@
         <v>120</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3636,14 +5792,13 @@
         <v>124</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3660,14 +5815,13 @@
         <v>127</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7">
         <v>10</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>243</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
     </row>
   </sheetData>
@@ -3683,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D549F47-D3EE-443F-B637-7883AD560406}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3699,39 +5853,41 @@
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25">
+        <v>10</v>
+      </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3747,7 +5903,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3763,7 +5919,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3772,26 +5928,30 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>267</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3807,27 +5967,23 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="6">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="11">
+        <v>104</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3843,7 +5999,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3859,7 +6015,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3868,10 +6024,12 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3887,7 +6045,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3901,7 +6059,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3910,10 +6068,12 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3928,9 +6088,8 @@
         <v>6</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3990,10 +6149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4007,40 +6166,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C2" s="6">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>212</v>
@@ -4048,19 +6207,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C3" s="6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>212</v>
@@ -4068,87 +6227,91 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="6">
+        <v>101</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="14">
-        <v>106</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14">
+        <v>289</v>
+      </c>
+      <c r="C5" s="6">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C6" s="6">
-        <v>107</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="6">
-        <v>107</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="20">
+        <v>106</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C8" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>212</v>
@@ -4156,47 +6319,59 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C9" s="6">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="C10" s="6">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C11" s="6">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>212</v>
@@ -4204,19 +6379,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" s="6">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E12" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>212</v>
@@ -4224,27 +6399,39 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="C13" s="6">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="C14" s="6">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>212</v>
@@ -4252,53 +6439,69 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+        <v>320</v>
+      </c>
+      <c r="C15" s="6">
+        <v>107</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="20">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="20">
+        <v>112</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="20">
+        <v>27</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="20">
+        <v>112</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C18" s="6">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>212</v>
@@ -4306,201 +6509,189 @@
       <c r="E18" s="6">
         <v>2</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="6" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="C19" s="6">
+        <v>120</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="6">
-        <v>124</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="A20" s="20">
+        <v>45</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C20" s="20">
+        <v>123</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="C21" s="6">
+        <v>124</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>483</v>
+      </c>
+      <c r="C22" s="6">
+        <v>129</v>
+      </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>309</v>
+        <v>484</v>
       </c>
       <c r="C23" s="6">
-        <v>117</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>243</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>310</v>
+        <v>488</v>
       </c>
       <c r="C24" s="6">
-        <v>101</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="C25" s="6">
+        <v>130</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>475</v>
+      </c>
+      <c r="C26" s="6">
+        <v>135</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="6">
-        <v>130</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="A27" s="20">
+        <v>3</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="6">
-        <v>112</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="A28" s="21">
+        <v>9</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="6">
-        <v>120</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6"/>
+      <c r="A29" s="21">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" s="6">
-        <v>106</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6">
         <v>2</v>
       </c>
@@ -4510,71 +6701,59 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C32" s="6">
-        <v>107</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" s="6">
-        <v>107</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C34" s="6">
-        <v>107</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>212</v>
@@ -4582,70 +6761,264 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="20">
+        <v>21</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" s="20">
+        <v>133</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>24</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21">
+        <v>2</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>25</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>30</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <v>34</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B41" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B42" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B44" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>10</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>43</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>10</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>10</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <v>10</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <v>10</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <v>10</v>
+      </c>
+      <c r="F53" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F39" xr:uid="{49F92A7D-7178-499D-BCAD-ADC94621388E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
-      <sortCondition ref="A1:A39"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+      <sortCondition ref="C1:C53"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4657,13 +7030,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -4671,22 +7044,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4694,19 +7067,19 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>106</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4734,19 +7107,19 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>105</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4780,9 +7153,7 @@
       <c r="C6" s="6">
         <v>132</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>361</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
         <v>5</v>
       </c>
@@ -4800,9 +7171,7 @@
       <c r="C7" s="6">
         <v>132</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>361</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>5</v>
       </c>
@@ -4817,9 +7186,13 @@
       <c r="B8" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>106</v>
+      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4830,7 +7203,9 @@
         <v>348</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
@@ -4842,7 +7217,9 @@
         <v>349</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
@@ -4854,7 +7231,9 @@
         <v>350</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
@@ -4868,7 +7247,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4883,25 +7262,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4934,9 +7313,7 @@
       <c r="C3" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="6">
-        <v>101</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
         <v>3</v>
@@ -4994,8 +7371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642EC6D-AA27-4FDC-A28F-3545E59FFB76}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="E1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5167,7 +7544,7 @@
         <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5205,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L7" t="s">
         <v>112</v>
@@ -5237,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
         <v>115</v>
@@ -5312,7 +7689,7 @@
         <v>824</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" s="2">
         <v>109</v>
@@ -5433,8 +7810,8 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>367</v>
+      <c r="I15" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="J15" t="s">
         <v>114</v>
@@ -5456,14 +7833,14 @@
       <c r="F16" s="2">
         <v>114</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>356</v>
+      <c r="G16" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K16" t="s">
         <v>112</v>
@@ -5488,8 +7865,8 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>365</v>
+      <c r="I17" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
@@ -5635,8 +8012,11 @@
       <c r="G23" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>242</v>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -5653,10 +8033,13 @@
         <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>242</v>
+        <v>463</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -5747,11 +8130,8 @@
       <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
-        <v>243</v>
+      <c r="H28" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -5891,14 +8271,14 @@
       <c r="F34" s="2">
         <v>132</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>364</v>
+      <c r="I34" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5999,9 +8379,13 @@
   </sheetData>
   <dataConsolidate function="count"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I23" r:id="rId1" xr:uid="{56E0300B-CA35-6240-A8C0-6AB47905BC87}"/>
+    <hyperlink ref="I24" r:id="rId2" xr:uid="{010BCE89-1E7C-CA49-BAC2-3C5C4C0303A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6011,7 +8395,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6026,12 +8410,12 @@
       <c r="A1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
@@ -6039,7 +8423,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>101</v>
       </c>
       <c r="B3" t="s">
@@ -6047,7 +8431,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>102</v>
       </c>
       <c r="B4" t="s">
@@ -6055,7 +8439,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>103</v>
       </c>
       <c r="B5" t="s">
@@ -6063,7 +8447,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>104</v>
       </c>
       <c r="B6" t="s">
@@ -6071,7 +8455,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>105</v>
       </c>
       <c r="B7" t="s">
@@ -6079,7 +8463,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>106</v>
       </c>
       <c r="B8" t="s">
@@ -6087,7 +8471,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>107</v>
       </c>
       <c r="B9" t="s">
@@ -6095,7 +8479,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -6103,7 +8487,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>109</v>
       </c>
       <c r="B11" t="s">
@@ -6111,7 +8495,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>110</v>
       </c>
       <c r="B12" t="s">
@@ -6119,7 +8503,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>111</v>
       </c>
       <c r="B13" t="s">
@@ -6127,7 +8511,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>112</v>
       </c>
       <c r="B14" t="s">
@@ -6135,7 +8519,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>113</v>
       </c>
       <c r="B15" t="s">
@@ -6143,7 +8527,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>114</v>
       </c>
       <c r="B16" t="s">
@@ -6151,7 +8535,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>115</v>
       </c>
       <c r="B17" t="s">
@@ -6159,7 +8543,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>116</v>
       </c>
       <c r="B18" t="s">
@@ -6167,7 +8551,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>117</v>
       </c>
       <c r="B19" t="s">
@@ -6175,7 +8559,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>118</v>
       </c>
       <c r="B20" t="s">
@@ -6183,7 +8567,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>119</v>
       </c>
       <c r="B21" t="s">
@@ -6191,7 +8575,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>120</v>
       </c>
       <c r="B22" t="s">
@@ -6199,7 +8583,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>121</v>
       </c>
       <c r="B23" t="s">
@@ -6207,7 +8591,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>122</v>
       </c>
       <c r="B24" t="s">
@@ -6215,7 +8599,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>123</v>
       </c>
       <c r="B25" t="s">
@@ -6223,7 +8607,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>124</v>
       </c>
       <c r="B26" t="s">
@@ -6231,7 +8615,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>125</v>
       </c>
       <c r="B27" t="s">
@@ -6239,7 +8623,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>126</v>
       </c>
       <c r="B28" t="s">
@@ -6247,7 +8631,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>127</v>
       </c>
       <c r="B29" t="s">
@@ -6255,7 +8639,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>128</v>
       </c>
       <c r="B30" t="s">
@@ -6263,7 +8647,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>129</v>
       </c>
       <c r="B31" t="s">
@@ -6271,7 +8655,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>130</v>
       </c>
       <c r="B32" t="s">
@@ -6279,7 +8663,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>131</v>
       </c>
       <c r="B33" t="s">
@@ -6287,7 +8671,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>132</v>
       </c>
       <c r="B34" t="s">
@@ -6295,7 +8679,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>133</v>
       </c>
       <c r="B35" t="s">
@@ -6303,7 +8687,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>134</v>
       </c>
       <c r="B36" t="s">
@@ -6311,7 +8695,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>135</v>
       </c>
       <c r="B37" t="s">
@@ -6319,7 +8703,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>136</v>
       </c>
       <c r="B38" t="s">
@@ -6328,6 +8712,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6336,12 +8723,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
@@ -6349,26 +8736,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
@@ -6379,10 +8766,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -6390,10 +8777,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>227</v>
       </c>
       <c r="C4" t="s">
@@ -6401,10 +8788,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>229</v>
       </c>
       <c r="C5" t="s">
@@ -6412,10 +8799,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>231</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -6423,10 +8810,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>233</v>
       </c>
       <c r="C7" t="s">
@@ -6434,10 +8821,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6445,10 +8832,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>237</v>
       </c>
       <c r="C9" t="s">
@@ -6456,10 +8843,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -6467,14 +8854,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>